--- a/biology/Botanique/Marche_mondiale_pour_le_cannabis/Marche_mondiale_pour_le_cannabis.xlsx
+++ b/biology/Botanique/Marche_mondiale_pour_le_cannabis/Marche_mondiale_pour_le_cannabis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Marche Mondiale pour le Cannabis ou Marche Mondiale du Cannabis (initialement Million Marijuana March ou Global Cannabis March) est un évènement international ayant lieu tous les ans depuis 1999, dans plus de 700 villes et 65 nations. Elle a lieu généralement le premier samedi du mois de mai.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le XXe siècle a amené une uniformisation des politiques relatives aux stupéfiants et notamment au cannabis. Par exemple, la Convention unique sur les stupéfiants de 1961.
 Cet évènement s'est donc esquissé comme une réponse globale aux politiques en défaveur du cannabis, sous la forme d'une journée internationale de convergence des luttes cannabiques.
@@ -544,9 +558,11 @@
           <t>Nations participantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorénavant, cette manifestation a lieu dans au moins 65 pays[1], dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorénavant, cette manifestation a lieu dans au moins 65 pays, dont :
 Afrique du Sud
 Allemagne
 Angola
@@ -640,22 +656,257 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la première marche a eu lieu en 2001 à l'initiative du CAHO-MMC (Comité Ad'Hoc pour l'Organisation de la Marche Mondiale du Cannabis) réunissant plusieurs entités morales telles des organisations politiques (Les Verts, la LCR (devenue depuis NPA), le MJS et les JRG), des associations (CAM-RD, Act Up Paris, AIDES, ASUD, etc.) et même des acteurs économiques ou culturels (les éditions du Lézard, L'Esprit frappeur, Chanvre et Cie, Natural Mystic). En 2009, la MMC est le point de départ de la campagne pour les élections européennes de Cannabis Sans Frontières. Le mouvement s'est élargi depuis. Cette manifestation est un événement important, tant il est rare de revendiquer publiquement la réforme de la loi du 31 décembre 1970 pour un changement de politique du cannabis en France, avec la campagne internationale Support. Don't Punish. (Soutenez. Ne punissez pas.)[2] le 26 juin à l'occasion de la journée de l'ONU contre la drogue et le crime et l'Appel du 18 joint organisé par le CIRC.
-Villes
-2010
-En 2010, la marche a eu lieu à Paris et Lyon.
-2011
-En 2011, la marche a eu lieu à Paris, Lyon, Toulouse[3], Marseille[4], Guadeloupe, La Réunion, Aurillac, Cognac, Nantes et Strasbourg
-2012
-En 2012, on comptait 600 participants de la place de la Bastille jusqu’à la bibliothèque François Mitterrand, à Paris, et une bonne affluence à Lyon, Toulouse, Lille, Nice, Tours, à La Réunion, et près de 300 participants au "pique-nique cannabique" sur la place des quinconces à Bordeaux.
-2013
-Paris, Lyon, Toulouse[5],[6] et Rennes[7] ont participé en 2013.
-2014
-Regain d'intérêt en 2014, avec des cortèges à Paris Bastille, Lyon (place Carnot), Marseille (Kiosque des réformés), Toulouse (de la place Wilson à la Prairie des Filtres), Lille au parc Henri Matisse, Tours (place du Maréchal Leclerc), sur l'Île de la Réunion (à Saint-Joseph, lieu-dit la "Tissage", pour une journée complète d'activités), en Martinique (stand d'informations au marché Rasta annuel de Saint-Pierre), Bayonne (plage des Cavaliers d'Anglet), Metz (Plan d'eau), Rennes (place de la mairie), Nice (place Masséna) et Montpellier (place de la Comédie).
-2015
-De même, en 2015 ont lieu de nombreux cortèges :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la première marche a eu lieu en 2001 à l'initiative du CAHO-MMC (Comité Ad'Hoc pour l'Organisation de la Marche Mondiale du Cannabis) réunissant plusieurs entités morales telles des organisations politiques (Les Verts, la LCR (devenue depuis NPA), le MJS et les JRG), des associations (CAM-RD, Act Up Paris, AIDES, ASUD, etc.) et même des acteurs économiques ou culturels (les éditions du Lézard, L'Esprit frappeur, Chanvre et Cie, Natural Mystic). En 2009, la MMC est le point de départ de la campagne pour les élections européennes de Cannabis Sans Frontières. Le mouvement s'est élargi depuis. Cette manifestation est un événement important, tant il est rare de revendiquer publiquement la réforme de la loi du 31 décembre 1970 pour un changement de politique du cannabis en France, avec la campagne internationale Support. Don't Punish. (Soutenez. Ne punissez pas.) le 26 juin à l'occasion de la journée de l'ONU contre la drogue et le crime et l'Appel du 18 joint organisé par le CIRC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, la marche a eu lieu à Paris et Lyon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, la marche a eu lieu à Paris, Lyon, Toulouse, Marseille, Guadeloupe, La Réunion, Aurillac, Cognac, Nantes et Strasbourg
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, on comptait 600 participants de la place de la Bastille jusqu’à la bibliothèque François Mitterrand, à Paris, et une bonne affluence à Lyon, Toulouse, Lille, Nice, Tours, à La Réunion, et près de 300 participants au "pique-nique cannabique" sur la place des quinconces à Bordeaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paris, Lyon, Toulouse, et Rennes ont participé en 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regain d'intérêt en 2014, avec des cortèges à Paris Bastille, Lyon (place Carnot), Marseille (Kiosque des réformés), Toulouse (de la place Wilson à la Prairie des Filtres), Lille au parc Henri Matisse, Tours (place du Maréchal Leclerc), sur l'Île de la Réunion (à Saint-Joseph, lieu-dit la "Tissage", pour une journée complète d'activités), en Martinique (stand d'informations au marché Rasta annuel de Saint-Pierre), Bayonne (plage des Cavaliers d'Anglet), Metz (Plan d'eau), Rennes (place de la mairie), Nice (place Masséna) et Montpellier (place de la Comédie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>De même, en 2015 ont lieu de nombreux cortèges :
 à Paris le 1er mai, place Voltaire ainsi que le 9 mai, départ 14h place de la Bastille,
 à Lyon le 2 mai, place Carnot,
 à Marseille le 1er mai à la Jetée, suivie d'une journée culturelle puis d'une manifestation le 2 mai au vieux port,
@@ -663,9 +914,47 @@
 à Poitiers le 2 mai place de l'Hôtel de Ville,
 à Bayonne le 2 mai plage des Sables d'Or d'Anglet,
 à Rennes le 2 mai, place de la mairie,
-à Nice le même jour, place Garibaldi.
-2016
-En 2016, l'appel à la mobilisation est le suivant :
+à Nice le même jour, place Garibaldi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, l'appel à la mobilisation est le suivant :
 Paris, le samedi 14 mai à 14h, départ du cortège place de la Bastille,
 Lyon, le 7 mai à 15h,
 Marseille, le 7 mai,
@@ -673,16 +962,166 @@
 Poitiers, le 7 mai à 14h place du Maréchal Leclerc,
 Chartres, le 7 mai à 14h devant la préfecture.
 La marche sera l'occasion de faire le point sur la Session extraordinaire de l'Assemblée Générale des Nations unies sur les questions de drogues, qui se tiendra juste avant, les 19, 20 et 21 avril à New-York.
-2017
-Le samedi 29 avril à partir de 14h à Paris. Pour la première fois, les sites Newsweed et Weedmaps ont participé à l'événement, déplaçant pour l'occasion des artistes comme DJ Weedim, Biffty ou Marlo Flexxx.
-Le samedi 13 mai dans plusieurs villes en région, dont Saint-Flour dans le Cantal pour sa première édition .
-2018
-Le samedi 12 mai à Paris. Pour l'occasion, la Marche Mondiale du Cannabis s'est renommée Cannaparade[8]
-Le samedi 5 mai à Nantes, Poitiers et Lyon
-2021
-En 2021 des rassemblements ont eu lieu le 22 mai à Grenoble[9] et le 29 mai à Paris[10].
-Revendications
-Voici les revendications formulées en 2011 par le comité ad hoc pour l'organisation de la marche mondiale en France :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le samedi 29 avril à partir de 14h à Paris. Pour la première fois, les sites Newsweed et Weedmaps ont participé à l'événement, déplaçant pour l'occasion des artistes comme DJ Weedim, Biffty ou Marlo Flexxx.
+Le samedi 13 mai dans plusieurs villes en région, dont Saint-Flour dans le Cantal pour sa première édition .</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le samedi 12 mai à Paris. Pour l'occasion, la Marche Mondiale du Cannabis s'est renommée Cannaparade
+Le samedi 5 mai à Nantes, Poitiers et Lyon</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Villes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021 des rassemblements ont eu lieu le 22 mai à Grenoble et le 29 mai à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_mondiale_pour_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Revendications</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici les revendications formulées en 2011 par le comité ad hoc pour l'organisation de la marche mondiale en France :
 La réforme de la politique française en matière de cannabis et l’ouverture d’un débat public sur la loi du 31 décembre 1970
 Une régulation de la production, de la distribution et de la consommation de cannabis protégeant aussi bien le consommateur que l’ensemble de la société
 La dépénalisation de la consommation, de la possession et de l’autoproduction pour usage personnel
